--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3220096.38158447</v>
+        <v>3217700.72557929</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>5.770377255371075</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.28773869504415</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>218.3309045822807</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906496</v>
+        <v>96.65565115906503</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833728</v>
+        <v>33.85559031833751</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>60.10129804361293</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>220.4698991413091</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>70.08570195183502</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.0434357771752</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>166.6677888758713</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>66.12803363640502</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>120.6685128696001</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>239.5094493590967</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>361.4012368051387</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.8355654476797</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>88.16459672587339</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
         <v>286.2265992197056</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>126.1605539371081</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722634</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>113.6427030833203</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505416</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.040488224226</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1850,13 +1850,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>1.799772605716619</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.799772605716619</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703271</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1219.251568585143</v>
+        <v>887.9329408788703</v>
       </c>
       <c r="C2" t="n">
-        <v>1219.251568585143</v>
+        <v>887.9329408788703</v>
       </c>
       <c r="D2" t="n">
-        <v>860.9858699783929</v>
+        <v>887.9329408788703</v>
       </c>
       <c r="E2" t="n">
-        <v>475.1976173801486</v>
+        <v>882.1042769845561</v>
       </c>
       <c r="F2" t="n">
-        <v>64.21171259054108</v>
+        <v>875.1587762353527</v>
       </c>
       <c r="G2" t="n">
-        <v>51.79985532281972</v>
+        <v>458.7065149272273</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640844</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870233</v>
+        <v>293.3053724073753</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520187</v>
+        <v>455.1003844723691</v>
       </c>
       <c r="L2" t="n">
-        <v>525.3175166702108</v>
+        <v>692.7231656905592</v>
       </c>
       <c r="M2" t="n">
-        <v>842.5289867532257</v>
+        <v>988.79373224816</v>
       </c>
       <c r="N2" t="n">
-        <v>1483.55219637312</v>
+        <v>1436.225927159631</v>
       </c>
       <c r="O2" t="n">
-        <v>1758.668415689754</v>
+        <v>2077.249136779525</v>
       </c>
       <c r="P2" t="n">
-        <v>2277.553464068625</v>
+        <v>2277.553464068627</v>
       </c>
       <c r="Q2" t="n">
         <v>2589.992766140986</v>
@@ -4355,25 +4355,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2589.992766140986</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="V2" t="n">
-        <v>2369.456498886157</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="W2" t="n">
-        <v>2369.456498886157</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="X2" t="n">
-        <v>1995.990740625077</v>
+        <v>1278.072272854682</v>
       </c>
       <c r="Y2" t="n">
-        <v>1605.851408649265</v>
+        <v>887.9329408788703</v>
       </c>
     </row>
     <row r="3">
@@ -4383,64 +4383,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093631</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282361</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669849</v>
+        <v>626.5027693669851</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615294</v>
+        <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884145</v>
+        <v>320.7307563884148</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686806</v>
+        <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093821</v>
+        <v>85.99742130093844</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995069</v>
+        <v>77.11538214995008</v>
       </c>
       <c r="K3" t="n">
-        <v>198.5384744202298</v>
+        <v>198.5384744202281</v>
       </c>
       <c r="L3" t="n">
-        <v>775.2612895234854</v>
+        <v>408.1293476730576</v>
       </c>
       <c r="M3" t="n">
-        <v>1157.279352600684</v>
+        <v>672.0688791685436</v>
       </c>
       <c r="N3" t="n">
-        <v>1798.302562220578</v>
+        <v>1313.092088788438</v>
       </c>
       <c r="O3" t="n">
-        <v>2037.107513972037</v>
+        <v>1941.820736623857</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879285</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128891</v>
+        <v>2251.223226128892</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259862</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329431</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>686.0643975678488</v>
+        <v>112.508237185055</v>
       </c>
       <c r="C4" t="n">
-        <v>517.1282146399419</v>
+        <v>112.508237185055</v>
       </c>
       <c r="D4" t="n">
-        <v>367.0115752276062</v>
+        <v>112.508237185055</v>
       </c>
       <c r="E4" t="n">
-        <v>367.0115752276062</v>
+        <v>112.508237185055</v>
       </c>
       <c r="F4" t="n">
-        <v>220.1216277296958</v>
+        <v>112.508237185055</v>
       </c>
       <c r="G4" t="n">
         <v>51.79985532281972</v>
@@ -4486,52 +4486,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>54.03452733018376</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159875</v>
+        <v>187.5436166159864</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341317</v>
+        <v>413.9157199341299</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666723</v>
+        <v>662.9824862666695</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092733</v>
+        <v>911.5616180092698</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357428</v>
+        <v>1125.148384357424</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993472</v>
+        <v>1284.388078993468</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361123</v>
+        <v>1108.730062521419</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361123</v>
+        <v>884.3189032968571</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.202309361123</v>
+        <v>595.1822762889592</v>
       </c>
       <c r="V4" t="n">
-        <v>1311.202309361123</v>
+        <v>340.4977880830724</v>
       </c>
       <c r="W4" t="n">
-        <v>1311.202309361123</v>
+        <v>340.4977880830724</v>
       </c>
       <c r="X4" t="n">
-        <v>1088.505441541619</v>
+        <v>112.508237185055</v>
       </c>
       <c r="Y4" t="n">
-        <v>867.7128623980885</v>
+        <v>112.508237185055</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2127.76817854206</v>
+        <v>1267.145883568225</v>
       </c>
       <c r="C5" t="n">
-        <v>1758.805661601648</v>
+        <v>898.183366627813</v>
       </c>
       <c r="D5" t="n">
-        <v>1400.539962994898</v>
+        <v>539.9176680210626</v>
       </c>
       <c r="E5" t="n">
-        <v>1014.751710396654</v>
+        <v>539.9176680210626</v>
       </c>
       <c r="F5" t="n">
-        <v>603.7658056070461</v>
+        <v>532.9721672718591</v>
       </c>
       <c r="G5" t="n">
-        <v>188.0839638071781</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719912</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L5" t="n">
         <v>804.6133007477383</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O5" t="n">
         <v>2075.818195082062</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T5" t="n">
-        <v>2381.347406599813</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="U5" t="n">
-        <v>2127.76817854206</v>
+        <v>2212.236357502978</v>
       </c>
       <c r="V5" t="n">
-        <v>2127.76817854206</v>
+        <v>2212.236357502978</v>
       </c>
       <c r="W5" t="n">
-        <v>2127.76817854206</v>
+        <v>2212.236357502978</v>
       </c>
       <c r="X5" t="n">
-        <v>2127.76817854206</v>
+        <v>2043.885055608158</v>
       </c>
       <c r="Y5" t="n">
-        <v>2127.76817854206</v>
+        <v>1653.745723632346</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K6" t="n">
-        <v>426.7768722128336</v>
+        <v>301.946747225829</v>
       </c>
       <c r="L6" t="n">
-        <v>724.0888213291483</v>
+        <v>896.1151064594476</v>
       </c>
       <c r="M6" t="n">
-        <v>1090.394710821474</v>
+        <v>1262.420995951773</v>
       </c>
       <c r="N6" t="n">
-        <v>1554.712543231644</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O6" t="n">
-        <v>2195.735752851538</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P6" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>350.5640303022736</v>
+        <v>455.5082205609635</v>
       </c>
       <c r="C7" t="n">
-        <v>350.5640303022736</v>
+        <v>286.5720376330567</v>
       </c>
       <c r="D7" t="n">
-        <v>200.4473908899379</v>
+        <v>286.5720376330567</v>
       </c>
       <c r="E7" t="n">
-        <v>200.4473908899379</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="F7" t="n">
-        <v>200.4473908899379</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="G7" t="n">
-        <v>200.4473908899379</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
         <v>51.79985532281972</v>
@@ -4723,25 +4723,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080553</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
@@ -4750,25 +4750,25 @@
         <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153878</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T7" t="n">
-        <v>1525.096283416908</v>
+        <v>1227.599429701828</v>
       </c>
       <c r="U7" t="n">
-        <v>1525.096283416908</v>
+        <v>1227.599429701828</v>
       </c>
       <c r="V7" t="n">
-        <v>1270.411795211021</v>
+        <v>972.9149414959414</v>
       </c>
       <c r="W7" t="n">
-        <v>980.9946251740608</v>
+        <v>683.4977714589809</v>
       </c>
       <c r="X7" t="n">
-        <v>753.0050742760435</v>
+        <v>455.5082205609635</v>
       </c>
       <c r="Y7" t="n">
-        <v>532.2124951325134</v>
+        <v>455.5082205609635</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1279.116237208468</v>
+        <v>1443.936635928375</v>
       </c>
       <c r="C8" t="n">
-        <v>1279.116237208468</v>
+        <v>1202.007899202015</v>
       </c>
       <c r="D8" t="n">
-        <v>1279.116237208468</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="E8" t="n">
-        <v>893.3279846102237</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="F8" t="n">
-        <v>482.3420798206161</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G8" t="n">
-        <v>117.2903254719911</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719911</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104781</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135511</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L8" t="n">
         <v>804.6133007477383</v>
@@ -4832,22 +4832,22 @@
         <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140986</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="U8" t="n">
-        <v>2336.413538083233</v>
+        <v>2127.76817854206</v>
       </c>
       <c r="V8" t="n">
-        <v>2005.350650739662</v>
+        <v>1796.705291198489</v>
       </c>
       <c r="W8" t="n">
-        <v>1652.581995469548</v>
+        <v>1443.936635928375</v>
       </c>
       <c r="X8" t="n">
-        <v>1279.116237208468</v>
+        <v>1443.936635928375</v>
       </c>
       <c r="Y8" t="n">
-        <v>1279.116237208468</v>
+        <v>1443.936635928375</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226162</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258289</v>
+        <v>426.7768722128336</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421437</v>
+        <v>724.0888213291483</v>
       </c>
       <c r="M9" t="n">
-        <v>1240.281905962038</v>
+        <v>1090.394710821474</v>
       </c>
       <c r="N9" t="n">
-        <v>1860.807072136006</v>
+        <v>1480.804272147216</v>
       </c>
       <c r="O9" t="n">
-        <v>2195.735752851538</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>496.7195358154589</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="C10" t="n">
-        <v>496.7195358154589</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="D10" t="n">
-        <v>346.6028964031232</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E10" t="n">
-        <v>198.6898028207301</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F10" t="n">
         <v>51.79985532281972</v>
@@ -4960,52 +4960,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1557.928521945925</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T10" t="n">
-        <v>1557.928521945925</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U10" t="n">
-        <v>1268.810744956324</v>
+        <v>836.3602904692523</v>
       </c>
       <c r="V10" t="n">
-        <v>1014.126256750437</v>
+        <v>581.6758022633654</v>
       </c>
       <c r="W10" t="n">
-        <v>724.7090867134763</v>
+        <v>454.2408992965895</v>
       </c>
       <c r="X10" t="n">
-        <v>496.7195358154589</v>
+        <v>454.2408992965895</v>
       </c>
       <c r="Y10" t="n">
-        <v>496.7195358154589</v>
+        <v>233.4483201530594</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795859</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5498,10 +5498,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5595,19 +5595,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6072,19 +6072,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468418</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963486</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6130,13 +6130,13 @@
         <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000582</v>
@@ -6212,16 +6212,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111716</v>
@@ -6233,19 +6233,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,10 +6710,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7017,16 +7017,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406468</v>
@@ -7163,31 +7163,31 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,16 +7208,16 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7406,19 +7406,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7643,28 +7643,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7985,22 +7985,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>21.35444800546657</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>338.9374781659683</v>
+        <v>143.3909986625129</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>369.6030205083451</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159724</v>
+        <v>26.19461818159803</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,22 +8061,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>119.2712440219306</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>359.2821607945058</v>
+        <v>359.2821607945077</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>204.6347509527575</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,31 +8292,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>299.8549597144483</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>74.65481927719969</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>309.1863928326897</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906578</v>
+        <v>20.18437503906576</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,22 +8538,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>277.4922425530994</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>232.4400048971983</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>173.7639243740402</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906577</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>34.97276993489203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711697</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.2063328744018</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405072</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.6341900408526</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405072</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194174</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>752061.2222185583</v>
+        <v>752061.2222185587</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>729054.9565227051</v>
+        <v>729054.956522705</v>
       </c>
     </row>
     <row r="4">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>711742.7704138663</v>
+        <v>711742.7704138664</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>711742.7704138663</v>
+        <v>711742.7704138664</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.274728755</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="F2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="G2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="I2" t="n">
         <v>706253.2747287552</v>
       </c>
-      <c r="H2" t="n">
-        <v>706253.2747287549</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287549</v>
-      </c>
       <c r="J2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="K2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287551</v>
       </c>
       <c r="L2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="M2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="N2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="O2" t="n">
         <v>706253.2747287552</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>706253.2747287555</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898924</v>
+        <v>172764.3597898954</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457506</v>
+        <v>500888.8677457509</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042352</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151599</v>
+        <v>159785.8388151604</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.48053169506</v>
+        <v>6287.48053169497</v>
       </c>
       <c r="F4" t="n">
+        <v>6287.480531695085</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6287.480531695075</v>
+      </c>
+      <c r="H4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="G4" t="n">
-        <v>6287.48053169507</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6287.480531695023</v>
-      </c>
       <c r="I4" t="n">
-        <v>6287.480531695023</v>
+        <v>6287.480531695031</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695042</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695053</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695065</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="M4" t="n">
+        <v>6287.480531695036</v>
+      </c>
+      <c r="N4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="N4" t="n">
-        <v>6287.480531695025</v>
-      </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695061</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695051</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.0748969909</v>
+        <v>89345.07489699085</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-470402.3009563014</v>
+        <v>-470402.3009562989</v>
       </c>
       <c r="C6" t="n">
-        <v>323099.3447545982</v>
+        <v>323099.3447545952</v>
       </c>
       <c r="D6" t="n">
-        <v>495863.7045444904</v>
+        <v>495863.7045444908</v>
       </c>
       <c r="E6" t="n">
-        <v>97954.39662740224</v>
+        <v>97919.6587019666</v>
       </c>
       <c r="F6" t="n">
-        <v>598843.2643731532</v>
+        <v>598808.5264477179</v>
       </c>
       <c r="G6" t="n">
-        <v>598843.2643731531</v>
+        <v>598808.5264477176</v>
       </c>
       <c r="H6" t="n">
-        <v>598843.2643731526</v>
+        <v>598808.5264477177</v>
       </c>
       <c r="I6" t="n">
-        <v>598843.2643731527</v>
+        <v>598808.5264477173</v>
       </c>
       <c r="J6" t="n">
-        <v>429429.247547105</v>
+        <v>429394.5096216695</v>
       </c>
       <c r="K6" t="n">
-        <v>598843.2643731533</v>
+        <v>598808.5264477174</v>
       </c>
       <c r="L6" t="n">
-        <v>598843.2643731533</v>
+        <v>598808.5264477177</v>
       </c>
       <c r="M6" t="n">
-        <v>467958.8074689177</v>
+        <v>467924.0695434824</v>
       </c>
       <c r="N6" t="n">
-        <v>598843.2643731533</v>
+        <v>598808.526447718</v>
       </c>
       <c r="O6" t="n">
-        <v>598843.2643731532</v>
+        <v>598808.5264477174</v>
       </c>
       <c r="P6" t="n">
-        <v>598843.2643731531</v>
+        <v>598808.5264477177</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
+        <v>939.7063906498448</v>
+      </c>
+      <c r="D3" t="n">
         <v>939.7063906498446</v>
-      </c>
-      <c r="D3" t="n">
-        <v>939.7063906498447</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
         <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522338</v>
+        <v>189.7254341522371</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.269109691829</v>
+        <v>428.2691096918294</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644024</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644024</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644024</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>376.1599928168907</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>109.4213538878542</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>106.5372566391944</v>
       </c>
       <c r="H4" t="n">
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>5.239756247728025</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>230.7005852966248</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>203.0633118025978</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>80.30592901016415</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
         <v>104.4906595130011</v>
@@ -27822,10 +27822,10 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>100.0367158438383</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2265992197056</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>125.7634424119109</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>50.12378657673065</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.2964268507295</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>106.3205726082177</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>160.3624443994829</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28096,13 +28096,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-1.607718096583367e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28570,13 +28570,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-9.478485573907633e-15</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090895</v>
+        <v>3.014998820090883</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625589</v>
+        <v>30.87735666625576</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115544</v>
+        <v>116.2357420115539</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066899</v>
+        <v>255.8942561066888</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611376</v>
+        <v>383.519156161136</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014944</v>
+        <v>475.7894263014924</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682859</v>
+        <v>529.4074115682837</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658691</v>
+        <v>537.9737769658669</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485902</v>
+        <v>507.9933824485882</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775962</v>
+        <v>433.5605990775944</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330909</v>
+        <v>325.5859538330896</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325349</v>
+        <v>189.3909196325341</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282135</v>
+        <v>68.70428561282107</v>
       </c>
       <c r="T2" t="n">
-        <v>13.1981573349479</v>
+        <v>13.19815733494785</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072716</v>
+        <v>0.2411999056072706</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674106</v>
+        <v>1.6131665856741</v>
       </c>
       <c r="H3" t="n">
-        <v>15.5797930774315</v>
+        <v>15.57979307743144</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307779</v>
+        <v>55.54104253307757</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859909</v>
+        <v>152.4088658859903</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126156</v>
+        <v>260.491027126155</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605116</v>
+        <v>350.2623325605101</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911979</v>
+        <v>408.7396212911962</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240738</v>
+        <v>419.5577428240721</v>
       </c>
       <c r="O3" t="n">
-        <v>383.813367425716</v>
+        <v>383.8133674257144</v>
       </c>
       <c r="P3" t="n">
-        <v>308.04406494333</v>
+        <v>308.0440649433287</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028912</v>
+        <v>205.9192996028904</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526432</v>
+        <v>100.1578341526428</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969226</v>
+        <v>29.96386179969214</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993435</v>
+        <v>6.502193386993408</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364544</v>
+        <v>0.106129380636454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651429</v>
+        <v>1.352424675651424</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351908</v>
+        <v>12.02428484351903</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777208</v>
+        <v>40.67109842777192</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855604</v>
+        <v>95.61642456855564</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711387</v>
+        <v>157.1271577711381</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600316</v>
+        <v>201.0686649600308</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932508</v>
+        <v>211.9987152932499</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840047</v>
+        <v>206.9578596840039</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184402</v>
+        <v>191.1590805184395</v>
       </c>
       <c r="P4" t="n">
-        <v>163.569617135151</v>
+        <v>163.5696171351503</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311392</v>
+        <v>113.2471244311388</v>
       </c>
       <c r="R4" t="n">
-        <v>60.8099313251997</v>
+        <v>60.80993132519945</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567081</v>
+        <v>23.56907366567071</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965196</v>
+        <v>5.778541795965173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189623</v>
+        <v>0.07376861867189592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265705</v>
       </c>
       <c r="H5" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730741</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839335</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712725</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086971</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179232</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T5" t="n">
         <v>16.53694361837063</v>
@@ -31355,31 +31355,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H6" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P6" t="n">
         <v>385.9711022274806</v>
@@ -31391,13 +31391,13 @@
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
@@ -31449,7 +31449,7 @@
         <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M7" t="n">
         <v>265.6288080979552</v>
@@ -31461,22 +31461,22 @@
         <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662508</v>
+        <v>76.1932427566251</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843064</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.09243013678523074</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31522,25 +31522,25 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
         <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
         <v>407.9506271086971</v>
@@ -31549,7 +31549,7 @@
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179233</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T8" t="n">
         <v>16.53694361837063</v>
@@ -31601,22 +31601,22 @@
         <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
         <v>385.9711022274806</v>
@@ -31628,13 +31628,13 @@
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284991</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T9" t="n">
         <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31698,10 +31698,10 @@
         <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
         <v>76.19324275662508</v>
@@ -31710,10 +31710,10 @@
         <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32084,16 +32084,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>597.1709559744729</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32315,22 +32315,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32792,7 +32792,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
@@ -32804,10 +32804,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>364.3208035245826</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33035,16 +33035,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000359</v>
+        <v>243.9449667520763</v>
       </c>
       <c r="K2" t="n">
-        <v>163.429305116157</v>
+        <v>163.4293051161554</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315071</v>
+        <v>240.0230113315052</v>
       </c>
       <c r="M2" t="n">
-        <v>320.4156263464797</v>
+        <v>299.061178341011</v>
       </c>
       <c r="N2" t="n">
-        <v>647.4981915352464</v>
+        <v>451.9517120317889</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269035</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938092</v>
+        <v>202.3276033223249</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185461</v>
+        <v>315.5952546185448</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932421</v>
+        <v>25.57123921932359</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151797</v>
+        <v>122.649588151796</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840966</v>
+        <v>211.7079527806359</v>
       </c>
       <c r="M3" t="n">
-        <v>385.8768313911102</v>
+        <v>266.6055873691778</v>
       </c>
       <c r="N3" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812715</v>
+        <v>635.0794422579995</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689369</v>
+        <v>378.704408481756</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9375255168697</v>
+        <v>276.0148132527179</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883267</v>
+        <v>2.257244451882869</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452559</v>
+        <v>134.8576659452552</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203478</v>
+        <v>228.6586902203469</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550914</v>
+        <v>251.5825922550905</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632333</v>
+        <v>251.0900320632325</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324799</v>
+        <v>215.7442084324792</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000445</v>
+        <v>160.8481764000438</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944484</v>
+        <v>27.08508117944437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,28 +34936,28 @@
         <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873425</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495858</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.1266691917136</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931441</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>600.170059831938</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N6" t="n">
-        <v>469.0079115254243</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
-        <v>647.4981915352464</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131503</v>
+        <v>251.9966948131504</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297623</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978362</v>
+        <v>26.44568217978365</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912598</v>
       </c>
       <c r="M7" t="n">
         <v>305.2126850597958</v>
@@ -35106,13 +35106,13 @@
         <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701674</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35176,25 +35176,25 @@
         <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
         <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
         <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171357</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931442</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>647.4981915352464</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>626.793097145423</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025568</v>
+        <v>512.0757230765969</v>
       </c>
       <c r="P9" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297623</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978363</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35346,10 +35346,10 @@
         <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707382</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,16 +35732,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>455.0369220524547</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36364,7 +36364,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193518</v>
@@ -36373,7 +36373,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
@@ -36440,7 +36440,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,10 +36452,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>224.3390294385611</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789214</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36683,16 +36683,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
